--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3935</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amir Hamza</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/05/2014</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/05/2014</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>18/10/2015</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/10/2015</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>22/10/2015</t>
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1299,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>29/12/2015</t>
@@ -1344,7 +1398,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1542,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>06/01/2016</t>
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1844,7 +1896,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -1852,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1995,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1952,7 +2002,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2004,7 +2054,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2043,7 +2093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2065,7 +2115,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2102,7 +2152,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2139,7 +2189,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2176,7 +2226,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2213,7 +2263,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2250,7 +2300,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2287,7 +2337,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2324,7 +2374,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2361,7 +2411,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2398,7 +2448,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2435,7 +2485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2472,7 +2522,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2509,7 +2559,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2546,7 +2596,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2583,7 +2633,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2620,7 +2670,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2657,7 +2707,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2694,7 +2744,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2731,7 +2781,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2768,7 +2818,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2805,7 +2855,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2842,7 +2892,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2879,7 +2929,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2916,7 +2966,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2953,7 +3003,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2990,7 +3040,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3027,7 +3077,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3064,7 +3114,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3101,7 +3151,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3138,7 +3188,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3175,7 +3225,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3212,7 +3262,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3240,6 +3290,483 @@
           <t>0/15</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3381,9 +3382,6 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3396,15 +3394,412 @@
           <t>3847</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3414,13 +3809,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3428,23 +3816,14 @@
           <t>3850</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>11</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3454,27 +3833,14 @@
           <t>3864</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3484,17 +3850,12 @@
           <t>3867</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3502,13 +3863,14 @@
           <t>3869</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3518,13 +3880,14 @@
           <t>3871</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3534,25 +3897,8 @@
           <t>3873</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3560,29 +3906,8 @@
           <t>3991</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.59%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3590,23 +3915,14 @@
           <t>3993</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3932,12 @@
           <t>3994</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3634,23 +3945,14 @@
           <t>3998</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3660,13 +3962,14 @@
           <t>4006</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3676,29 +3979,12 @@
           <t>4007</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3706,17 +3992,8 @@
           <t>4008</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3724,25 +4001,12 @@
           <t>4009</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3750,11 +4014,12 @@
           <t>4040</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3762,11 +4027,12 @@
           <t>4043</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -756,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -902,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -1001,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/05/2014</t>
@@ -1048,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/05/2014</t>
@@ -1147,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>18/10/2015</t>
@@ -1194,6 +1200,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/10/2015</t>
@@ -1241,6 +1248,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>22/10/2015</t>
@@ -1392,6 +1400,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>29/12/2015</t>
@@ -1543,6 +1552,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>06/01/2016</t>
@@ -1798,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1897,6 +1908,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -1996,6 +2008,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -3295,746 +3308,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3843</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.28%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3846</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3847</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3849</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3850</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3864</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3867</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3869</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3871</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3873</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3991</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.59%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3993</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3994</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3998</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4006</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4007</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4009</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3843</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3846</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3847</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3849</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3850</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3864</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3867</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3869</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3871</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3873</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3991</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3993</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3994</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3998</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4006</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4007</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4009</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3935.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +662,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -708,7 +709,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -756,7 +756,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -804,7 +803,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -904,7 +902,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -1004,7 +1001,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/05/2014</t>
@@ -1052,7 +1048,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/05/2014</t>
@@ -1152,7 +1147,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>18/10/2015</t>
@@ -1200,7 +1194,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/10/2015</t>
@@ -1248,7 +1241,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>22/10/2015</t>
@@ -1400,7 +1392,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>29/12/2015</t>
@@ -1552,7 +1543,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>06/01/2016</t>
@@ -1808,7 +1798,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1908,7 +1897,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -2008,7 +1996,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -3308,4 +3295,1038 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>